--- a/tahfidz.xlsx
+++ b/tahfidz.xlsx
@@ -11,6 +11,29 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Hafalan Baru</t>
+  </si>
+  <si>
+    <t>Murajaah</t>
+  </si>
+  <si>
+    <t>Dari</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Hafalan Baru adalah nomor halaman</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,14 +966,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B5:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/tahfidz.xlsx
+++ b/tahfidz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>Tanggal</t>
   </si>
@@ -25,10 +25,19 @@
     <t>Murajaah</t>
   </si>
   <si>
+    <t>Juziyah</t>
+  </si>
+  <si>
     <t>Dari</t>
   </si>
   <si>
     <t>Ke</t>
+  </si>
+  <si>
+    <t>Persiapan</t>
+  </si>
+  <si>
+    <t>Rules</t>
   </si>
   <si>
     <t>Hafalan Baru adalah nomor halaman</t>
@@ -44,8 +53,16 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -502,153 +519,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,39 +995,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B5:E24"/>
+  <dimension ref="B5:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>5</v>
+    <row r="24" spans="2:2">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/tahfidz.xlsx
+++ b/tahfidz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>Tanggal</t>
   </si>
@@ -34,7 +34,25 @@
     <t>Ke</t>
   </si>
   <si>
+    <t>Juz</t>
+  </si>
+  <si>
+    <t>Bagian</t>
+  </si>
+  <si>
     <t>Persiapan</t>
+  </si>
+  <si>
+    <t>1/4 1</t>
+  </si>
+  <si>
+    <t>1/4 2</t>
+  </si>
+  <si>
+    <t>1/2 2</t>
+  </si>
+  <si>
+    <t>1/4 3</t>
   </si>
   <si>
     <t>Rules</t>
@@ -408,11 +426,39 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -588,22 +634,22 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,16 +658,16 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,27 +700,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -995,19 +1056,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B5:G25"/>
+  <dimension ref="B5:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="10.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="2" max="2" width="10.2857142857143"/>
+    <col min="7" max="7" width="10.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,12 +1080,13 @@
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -1031,30 +1094,217 @@
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="5">
+        <v>44197</v>
+      </c>
+      <c r="C7" s="6">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="5">
+        <v>44228</v>
+      </c>
+      <c r="C8" s="6">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5">
+        <v>44256</v>
+      </c>
+      <c r="C9" s="6">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="5">
+        <v>44287</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="7">
+        <v>44317</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C15" s="6">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C16" s="6">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6">
+        <v>33</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C17" s="6">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5">
+        <v>44501</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
-        <v>7</v>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/tahfidz.xlsx
+++ b/tahfidz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>Tanggal</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Juziyah</t>
   </si>
   <si>
+    <t>Laporan di Website</t>
+  </si>
+  <si>
+    <t>Contoh yang minggu pertama</t>
+  </si>
+  <si>
     <t>Dari</t>
   </si>
   <si>
@@ -43,22 +49,94 @@
     <t>Persiapan</t>
   </si>
   <si>
+    <t>Terisi otomatis</t>
+  </si>
+  <si>
     <t>1/4 1</t>
   </si>
   <si>
+    <t>Jumlah Hafalan Baru</t>
+  </si>
+  <si>
     <t>1/4 2</t>
   </si>
   <si>
+    <t>Jumlah Murajaah</t>
+  </si>
+  <si>
     <t>1/2 2</t>
   </si>
   <si>
+    <t>Persiapan Juziyah</t>
+  </si>
+  <si>
+    <t>Sakit</t>
+  </si>
+  <si>
+    <t>Izin</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+  <si>
+    <t>Fulan lagi kangen rumah</t>
+  </si>
+  <si>
+    <t>Kasih jarak satu baris</t>
+  </si>
+  <si>
+    <t>13/1/2021</t>
+  </si>
+  <si>
     <t>1/4 3</t>
   </si>
   <si>
+    <t>14/1/2021</t>
+  </si>
+  <si>
+    <t>sakit</t>
+  </si>
+  <si>
     <t>Rules</t>
   </si>
   <si>
     <t>Hafalan Baru adalah nomor halaman</t>
+  </si>
+  <si>
+    <t>Hafalan Baru dan Murajaah harus terus maju, nggak boleh diulang</t>
+  </si>
+  <si>
+    <t>Total Hafalan Baru adalah total halaman</t>
+  </si>
+  <si>
+    <t>Total Murajaah adalah total per seperempat juz</t>
+  </si>
+  <si>
+    <t>Kalau Hafalan Baru nggak sampai satu halaman, kosongin</t>
+  </si>
+  <si>
+    <t>Kalau Murajaah nggak sampai seperempat juz, kosongin</t>
+  </si>
+  <si>
+    <t>Di Persiapan Juziyah dan Juziyah, ditulis juznya</t>
+  </si>
+  <si>
+    <t>Persiapan Juziyah, memurajaah hafalan yang buat juziyah</t>
+  </si>
+  <si>
+    <t>Kalau nggak mau, berarti murajaah biasa aja lanjut terus</t>
+  </si>
+  <si>
+    <t>Kalau nggak mau, di Persiapan Juziyah kosongin aja</t>
+  </si>
+  <si>
+    <t>Musyrif Tahfidz laporan di website tiap akhir pekan</t>
+  </si>
+  <si>
+    <t>Kalau sakit atau izin, ditulis</t>
   </si>
 </sst>
 </file>
@@ -71,7 +149,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +159,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -426,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -447,19 +533,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -565,148 +638,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,13 +805,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,20 +1129,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B5:H25"/>
+  <dimension ref="B5:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="10.2857142857143"/>
     <col min="7" max="7" width="10.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="13" max="13" width="20.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:15">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,84 +1159,118 @@
         <v>3</v>
       </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="M5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="5">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C7" s="6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="5">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="C8" s="6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="5">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="C9" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="5">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1172,23 +1280,35 @@
         <v>1</v>
       </c>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="7">
-        <v>44317</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="2:8">
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="5">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1198,8 +1318,14 @@
       <c r="H12" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
@@ -1215,8 +1341,17 @@
       <c r="H13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1224,65 +1359,70 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
+      <c r="I14" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="5">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="C15" s="6">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="5">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="C16" s="6">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="5">
-        <v>44470</v>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C17" s="6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="5">
-        <v>44501</v>
-      </c>
-      <c r="C18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1290,13 +1430,68 @@
       <c r="H18" s="6"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9" t="s">
-        <v>13</v>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
